--- a/Documentação/Planilha de Matriz de Concorrência - Jornada do Usuário.xlsx
+++ b/Documentação/Planilha de Matriz de Concorrência - Jornada do Usuário.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghgoncalves\Desktop\project-hunter\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\fecco\Desktop\project-hunter\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A4C26-2EAB-4C0E-A205-18DA19E1AFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606E23D-95B4-48A7-B1E0-636B877188D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{607D592E-6B83-4547-8C5C-265056BC6CC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{607D592E-6B83-4547-8C5C-265056BC6CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Concorrência" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Canal (Ponto de contato)</t>
   </si>
   <si>
-    <t>Porpostas (Mudança)</t>
-  </si>
-  <si>
     <t>Convido pelo Whatsapp</t>
   </si>
   <si>
@@ -175,10 +172,13 @@
     <t>Melhorar o delay de resposta</t>
   </si>
   <si>
-    <t>Um bom filtro de trolls, tanto no linguajar e ociosidade.</t>
-  </si>
-  <si>
     <t>Fases do Utilizador</t>
+  </si>
+  <si>
+    <t>Propostas (Mudança)</t>
+  </si>
+  <si>
+    <t>Um bom filtro de jogadores - tanto no linguajar, ociosidade e interesse.</t>
   </si>
 </sst>
 </file>
@@ -533,9 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,19 +572,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9CA75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1585,32 +1577,32 @@
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H29" s="20"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H31" s="20"/>
-      <c r="I31" s="21" t="s">
+      <c r="H31" s="33"/>
+      <c r="I31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1629,7 +1621,7 @@
   <dimension ref="E2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,89 +1637,89 @@
   <sheetData>
     <row r="2" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="5:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="5:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="5:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="5:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="5:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="5:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="5:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="I8" s="32" t="s">
         <v>44</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
